--- a/excel/NhanVienExcel.xlsx
+++ b/excel/NhanVienExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t/>
   </si>
@@ -53,31 +53,94 @@
     <t>Hình Ảnh</t>
   </si>
   <si>
-    <t>Trưởng Phòng</t>
-  </si>
-  <si>
-    <t>NV1</t>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng Dương</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>0988353709</t>
+  </si>
+  <si>
+    <t>Xuân Phương</t>
+  </si>
+  <si>
+    <t>duongntph29011@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>duong.jpg</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>PH4</t>
+  </si>
+  <si>
+    <t>Ngô Trung Tuyến</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Chịu</t>
+  </si>
+  <si>
+    <t>tuyenntph29022@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyennguu</t>
+  </si>
+  <si>
+    <t>NoAvatar.jpg</t>
+  </si>
+  <si>
+    <t>PH3</t>
   </si>
   <si>
     <t>Phạm Quang Anh</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>0353541842</t>
-  </si>
-  <si>
     <t>Ninh Bình</t>
   </si>
   <si>
     <t>anhpqph29035@fpt.edu.vn</t>
   </si>
   <si>
-    <t>kaz</t>
+    <t>quanhnguu</t>
   </si>
   <si>
     <t>quanh.png</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>PH2</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Hiệp</t>
+  </si>
+  <si>
+    <t>Thanh Trì</t>
+  </si>
+  <si>
+    <t>hiepntph29450@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>hiep123</t>
+  </si>
+  <si>
+    <t>hiep.png</t>
   </si>
 </sst>
 </file>
@@ -122,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K4"/>
+  <dimension ref="A3:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -180,7 +243,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>37898.0</v>
+        <v>35667.0</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -196,6 +259,111 @@
       </c>
       <c r="K4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45007.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37864.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36019.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel/NhanVienExcel.xlsx
+++ b/excel/NhanVienExcel.xlsx
@@ -74,7 +74,7 @@
     <t>duongntph29011@fpt.edu.vn</t>
   </si>
   <si>
-    <t>123</t>
+    <t>omxrij</t>
   </si>
   <si>
     <t>duong.jpg</t>

--- a/excel/NhanVienExcel.xlsx
+++ b/excel/NhanVienExcel.xlsx
@@ -6,90 +6,141 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sản Phẩm" r:id="rId3" sheetId="1"/>
+    <sheet name="Nhân Viên" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t/>
   </si>
   <si>
-    <t>Danh Sách Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Số TT</t>
-  </si>
-  <si>
-    <t>Mã CTSP</t>
-  </si>
-  <si>
-    <t>Tên SP</t>
-  </si>
-  <si>
-    <t>Màu sắc</t>
-  </si>
-  <si>
-    <t>Dung lượng</t>
-  </si>
-  <si>
-    <t>Mã QR</t>
-  </si>
-  <si>
-    <t>Số lượng tồn</t>
-  </si>
-  <si>
-    <t>Hình ảnh</t>
-  </si>
-  <si>
-    <t>Năm BH</t>
-  </si>
-  <si>
-    <t>Giá Nhập</t>
-  </si>
-  <si>
-    <t>Giá Bán</t>
-  </si>
-  <si>
-    <t>Trạng Thái</t>
-  </si>
-  <si>
-    <t>CT1</t>
-  </si>
-  <si>
-    <t>Iphone 12</t>
-  </si>
-  <si>
-    <t>Đen</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Iphone 1232Đen</t>
-  </si>
-  <si>
-    <t>Iphone12.png</t>
-  </si>
-  <si>
-    <t>CT2</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>Đỏ</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy128Đỏ</t>
-  </si>
-  <si>
-    <t>SAMSUNGGALAXY_BLACK_32GB.png</t>
+    <t>Danh Sách Nhân Viên</t>
+  </si>
+  <si>
+    <t>Chức Vụ</t>
+  </si>
+  <si>
+    <t>Mã NV</t>
+  </si>
+  <si>
+    <t>Tên NV</t>
+  </si>
+  <si>
+    <t>Giới Tính</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Ngày Sinh</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mật Khẩu</t>
+  </si>
+  <si>
+    <t>Tình Trạng</t>
+  </si>
+  <si>
+    <t>Hình Ảnh</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng Dương</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>0988353709</t>
+  </si>
+  <si>
+    <t>Xuân Phương</t>
+  </si>
+  <si>
+    <t>duongntph29011@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>duong.jpg</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>PH4</t>
+  </si>
+  <si>
+    <t>Ngô Trung Tuyến</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Chịu</t>
+  </si>
+  <si>
+    <t>tuyenntph29022@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>tuyennguu</t>
+  </si>
+  <si>
+    <t>NoAvatar.jpg</t>
+  </si>
+  <si>
+    <t>PH3</t>
+  </si>
+  <si>
+    <t>Phạm Quang Anh</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>anhpqph29035@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>quanhnguu</t>
+  </si>
+  <si>
+    <t>quanh.png</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>PH2</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Hiệp</t>
+  </si>
+  <si>
+    <t>Thanh Trì</t>
+  </si>
+  <si>
+    <t>hiepntph29450@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>hiep123</t>
+  </si>
+  <si>
+    <t>hiep.png</t>
   </si>
 </sst>
 </file>
@@ -134,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,13 +230,10 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -199,64 +247,128 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="n">
+        <v>35667.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.0</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.0</v>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>5000000.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6000000.0</v>
-      </c>
-      <c r="L3" t="n">
         <v>0.0</v>
       </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45007.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="n">
+      <c r="F5" t="n">
+        <v>37864.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5000000.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6000000.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36019.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
